--- a/PRD2018-G13组项目/软件工程系列课程教学辅助网站/受控文档/分析设计/PRD2018-G13-风险管理.xlsx
+++ b/PRD2018-G13组项目/软件工程系列课程教学辅助网站/受控文档/分析设计/PRD2018-G13-风险管理.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>《风险后果严重性等级表》</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,9 +367,6 @@
     <t>中高风险</t>
   </si>
   <si>
-    <t>在项目早期编写一份包括业务需求在内的文档，并将它作为添加新需求和修改现有需求的指导</t>
-  </si>
-  <si>
     <t>陈安侍</t>
   </si>
   <si>
@@ -401,18 +398,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>空出职务由了解任务较多的组员暂时兼任</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发生组内矛盾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>首先上措施相同，确保项目组能够维持运作。再者由负责人出面约定时间地点沟通调解。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目评审时，展示使用电脑出现异常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,18 +414,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>确保携带笔记本电源线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>笔记本出现不可调解问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小组评审时需要携带备用笔记本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目任务未在deadline之前完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,18 +430,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加班加点，尽快补完剩余工作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>组员怠惰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>补完剩余工作，并对全体成员进行思想教育工作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中等风险</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,6 +448,48 @@
   <si>
     <t>《风险管理》</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于时间压力，迫使有待确定问题的工程继续前进</t>
+  </si>
+  <si>
+    <t>未能在预期时间内解决该阶段问题</t>
+  </si>
+  <si>
+    <t>影响下个阶段的工作</t>
+  </si>
+  <si>
+    <t>扩大需求范围</t>
+  </si>
+  <si>
+    <t>需要延长工期，以完成任务</t>
+  </si>
+  <si>
+    <t>应在分阶段交付产品的实现计划。优先实现核心功能，在迭代中逐步添加功能。</t>
+  </si>
+  <si>
+    <t>应该记录下负责解决问题的负责人的姓名和解决的截止日期。</t>
+  </si>
+  <si>
+    <t>在项目早期编写一份包括业务需求在内的文档，并将它作为添加新需求和修改现有需求的指导。</t>
+  </si>
+  <si>
+    <t>补完剩余工作，并对全体成员进行思想教育工作。</t>
+  </si>
+  <si>
+    <t>加班加点，尽快补完剩余工作。</t>
+  </si>
+  <si>
+    <t>小组评审时需要携带备用笔记本。</t>
+  </si>
+  <si>
+    <t>确保携带笔记本电源线。</t>
+  </si>
+  <si>
+    <t>首先上措施相同，确保项目组能够维持运作。再者由负责人出面约定时间地点沟通调解。</t>
+  </si>
+  <si>
+    <t>空出职务由了解任务较多的组员暂时兼任。</t>
   </si>
 </sst>
 </file>
@@ -558,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -644,6 +659,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -651,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -683,6 +707,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,6 +738,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -713,11 +758,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -727,7 +772,70 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -760,6 +868,69 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1075,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1094,15 +1265,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1195,16 +1366,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1378,14 +1549,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1486,18 +1657,18 @@
       <c r="F24" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="A26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1564,17 +1735,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="C29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="E29" s="8">
         <v>3</v>
@@ -1586,23 +1757,23 @@
         <f>F29*E29</f>
         <v>9</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>118</v>
+      <c r="H29" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="30"/>
       <c r="E30" s="8">
         <v>5</v>
       </c>
@@ -1613,26 +1784,26 @@
         <f t="shared" ref="G30:G34" si="0">F30*E30</f>
         <v>10</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>117</v>
+      <c r="H30" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>103</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="E31" s="8">
         <v>3</v>
@@ -1644,23 +1815,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>116</v>
+      <c r="H31" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="8">
         <v>3</v>
       </c>
@@ -1671,26 +1842,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>118</v>
+      <c r="H32" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
-        <v>110</v>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="E33" s="8">
         <v>3</v>
@@ -1702,23 +1873,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>118</v>
+      <c r="H33" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="27"/>
+        <v>108</v>
+      </c>
+      <c r="D34" s="34"/>
       <c r="E34" s="8">
         <v>3</v>
       </c>
@@ -1729,18 +1900,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>118</v>
+      <c r="H34" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1765,140 +1936,140 @@
         <v>27</v>
       </c>
       <c r="I35" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="36" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="21">
         <v>3</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="21">
         <v>3</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="21">
         <v>9</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="J36" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="21">
         <v>3</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="21">
         <v>4</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="21">
         <v>12</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2</v>
+      </c>
+      <c r="G40" s="21">
+        <v>6</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="15">
-        <v>3</v>
-      </c>
-      <c r="F40" s="15">
-        <v>2</v>
-      </c>
-      <c r="G40" s="15">
-        <v>6</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -1926,11 +2097,11 @@
         <v>77</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="9" t="s">
         <v>59</v>
       </c>
@@ -1956,11 +2127,11 @@
         <v>80</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="9" t="s">
         <v>60</v>
       </c>
@@ -1974,90 +2145,144 @@
         <v>4</v>
       </c>
       <c r="F44" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" s="12">
         <v>16</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="14">
+        <v>4</v>
+      </c>
+      <c r="F45" s="14">
+        <v>3</v>
+      </c>
+      <c r="G45" s="14">
+        <v>12</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J45" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="46" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>4</v>
-      </c>
-      <c r="F45" s="12">
-        <v>4</v>
-      </c>
-      <c r="G45" s="12">
-        <v>16</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="12">
-        <v>2</v>
       </c>
       <c r="F46" s="12">
         <v>4</v>
       </c>
       <c r="G46" s="12">
+        <v>16</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="12">
+        <v>3</v>
+      </c>
+      <c r="F47" s="12">
+        <v>4</v>
+      </c>
+      <c r="G47" s="12">
+        <v>12</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2</v>
+      </c>
+      <c r="F48" s="14">
+        <v>4</v>
+      </c>
+      <c r="G48" s="14">
         <v>8</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H48" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="11"/>
+      <c r="I48" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="11"/>
@@ -2116,8 +2341,13 @@
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="11"/>
     </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A9:H9"/>
@@ -2133,17 +2363,18 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A26:J26"/>
+    <mergeCell ref="I38:I39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="J38:J39"/>
@@ -2158,37 +2389,60 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:G15">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThanOrEqual">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="8" operator="greaterThanOrEqual">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="between">
       <formula>15</formula>
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
       <formula>10</formula>
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
       <formula>4</formula>
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
       <formula>0</formula>
       <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G48">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+      <formula>4</formula>
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="between">
+      <formula>10</formula>
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+      <formula>10</formula>
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+      <formula>15</formula>
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRD2018-G13组项目/软件工程系列课程教学辅助网站/受控文档/分析设计/PRD2018-G13-风险管理.xlsx
+++ b/PRD2018-G13组项目/软件工程系列课程教学辅助网站/受控文档/分析设计/PRD2018-G13-风险管理.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B2928-1AB2-4C13-9044-0ACAE91A7D04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
   <si>
     <t>《风险后果严重性等级表》</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -491,11 +492,83 @@
   <si>
     <t>空出职务由了解任务较多的组员暂时兼任。</t>
   </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组成员因为回家，生病或者与组内个别成员发生争吵，因而缺席</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要使用笔记本演示时笔记本的电量不足，自动关机或者不足以支持其完成评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要笔记本演示时笔记本因硬件或者软件原因无法使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为安排任务不合理，导致小组成员无法在规定时间内完成分配的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员因为懒惰，使得其无法按时完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在时间分配上对于项目所需时间不了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对项目做时间规划的时候，对于每个任务的任务量不了解，使得分配时间不合理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组成员对于制作的项目的需求不了解，按自己的想法来制作功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求说明书未得到及时的修正或者未完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于引用来的资源没有去深度剖析其制作的真正意图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不了解客户提出的需求的主次，首要与次要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求的可行性分析未完善或未对需求做出可行性分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要小组成员完成相关任务时，对于使用的软件不熟悉或者未安装软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组成员未能在该阶段内完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为使用的语言为中文。因中文的二义性导致小组成员对需求的理解产生误解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户随着项目的推移，发现原先提出的需求有所错误或者需要对该需求重新定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户随着项目的推移，发现原先提出的需求无法满足其要求，需要增添需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -710,6 +783,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,117 +843,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -881,6 +900,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -888,49 +914,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1002,7 +993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,9 +1026,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,6 +1078,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1245,37 +1270,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="1" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1283,14 +1309,15 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="18"/>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,14 +1325,15 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="18"/>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1313,14 +1341,15 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="18"/>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1328,14 +1357,15 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="18"/>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1343,14 +1373,15 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="18"/>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1358,26 +1389,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="18"/>
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1388,8 +1421,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1398,25 +1432,25 @@
         <f>A11*C16</f>
         <v>5</v>
       </c>
-      <c r="D11">
-        <f>A11*D16</f>
-        <v>10</v>
-      </c>
       <c r="E11">
         <f>A11*E16</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <f>A11*F16</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <f>A11*G16</f>
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <f>A11*H16</f>
         <v>25</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1425,25 +1459,25 @@
         <f>A12*C16</f>
         <v>4</v>
       </c>
-      <c r="D12">
-        <f>A12*D16</f>
-        <v>8</v>
-      </c>
       <c r="E12">
         <f>A12*E16</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <f>A12*F16</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <f>A12*G16</f>
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <f>A12*H16</f>
         <v>20</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1452,25 +1486,25 @@
         <f>A13*C16</f>
         <v>3</v>
       </c>
-      <c r="D13">
-        <f>A13*D16</f>
-        <v>6</v>
-      </c>
       <c r="E13">
         <f>A13*E16</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <f>A13*F16</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <f>A13*G16</f>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f>A13*H16</f>
         <v>15</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1479,25 +1513,25 @@
         <f>A14*C16</f>
         <v>2</v>
       </c>
-      <c r="D14">
-        <f>A14*D16</f>
-        <v>4</v>
-      </c>
       <c r="E14">
         <f>A14*E16</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <f>A14*F16</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <f>A14*G16</f>
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f>A14*H16</f>
         <v>10</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1506,25 +1540,25 @@
         <f>A15*C16</f>
         <v>1</v>
       </c>
-      <c r="D15">
-        <f>A15*D16</f>
-        <v>2</v>
-      </c>
       <c r="E15">
         <f>A15*E16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <f>A15*F16</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <f>A15*G16</f>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f>A15*H16</f>
         <v>5</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1532,33 +1566,35 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1566,17 +1602,18 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1584,15 +1621,16 @@
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1600,15 +1638,16 @@
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1616,15 +1655,16 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1632,15 +1672,16 @@
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1648,29 +1689,31 @@
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -1680,7 +1723,7 @@
       <c r="C27" s="9">
         <v>3</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="16">
         <v>4</v>
       </c>
       <c r="E27" s="9">
@@ -1701,8 +1744,11 @@
       <c r="J27" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -1712,206 +1758,225 @@
       <c r="C28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="26" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="E29" s="8">
-        <v>3</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
       </c>
       <c r="G29" s="8">
-        <f>F29*E29</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="8">
+        <f>G29*F29</f>
         <v>9</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="J29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+    <row r="30" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="8">
+      <c r="D30" s="21"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="8">
         <v>5</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>2</v>
       </c>
-      <c r="G30" s="8">
-        <f t="shared" ref="G30:G34" si="0">F30*E30</f>
+      <c r="H30" s="8">
+        <f t="shared" ref="H30:H34" si="0">G30*F30</f>
         <v>10</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="J30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>3</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>4</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+    <row r="32" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="8">
+      <c r="D32" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>2</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="I32" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31" t="s">
+    <row r="33" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <v>3</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <v>2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="32"/>
+    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="8">
+      <c r="D34" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="8">
         <v>3</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>2</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1920,156 +1985,171 @@
       <c r="C35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E35" s="9">
-        <v>4</v>
       </c>
       <c r="F35" s="9">
         <v>4</v>
       </c>
       <c r="G35" s="9">
+        <v>4</v>
+      </c>
+      <c r="H35" s="9">
         <v>12</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25" t="s">
+    <row r="36" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="20">
+        <v>3</v>
+      </c>
+      <c r="G36" s="20">
+        <v>3</v>
+      </c>
+      <c r="H36" s="20">
+        <v>9</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="21">
+      <c r="K36" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="20">
         <v>3</v>
       </c>
-      <c r="F36" s="21">
+      <c r="G38" s="20">
+        <v>4</v>
+      </c>
+      <c r="H38" s="20">
+        <v>12</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="20">
         <v>3</v>
       </c>
-      <c r="G36" s="21">
-        <v>9</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="21">
-        <v>3</v>
-      </c>
-      <c r="F38" s="21">
-        <v>4</v>
-      </c>
-      <c r="G38" s="21">
-        <v>12</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="21">
-        <v>3</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="G40" s="20">
         <v>2</v>
       </c>
-      <c r="G40" s="21">
+      <c r="H40" s="20">
         <v>6</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="J40" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="K40" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A42" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2078,90 +2158,99 @@
       <c r="C42" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="12">
+      <c r="F42" s="12">
         <v>3</v>
       </c>
-      <c r="F42" s="12">
+      <c r="G42" s="12">
         <v>2</v>
       </c>
-      <c r="G42" s="12">
+      <c r="H42" s="12">
         <v>6</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="I42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+    <row r="43" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="35"/>
       <c r="B43" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="12">
+      <c r="F43" s="12">
         <v>4</v>
       </c>
-      <c r="F43" s="12">
+      <c r="G43" s="12">
         <v>3</v>
       </c>
-      <c r="G43" s="12">
+      <c r="H43" s="12">
         <v>12</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="I43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="K43" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+    <row r="44" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="35"/>
       <c r="B44" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="12">
+      <c r="F44" s="12">
         <v>4</v>
       </c>
-      <c r="F44" s="12">
+      <c r="G44" s="12">
         <v>3</v>
       </c>
-      <c r="G44" s="12">
+      <c r="H44" s="12">
         <v>16</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="K44" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -2170,60 +2259,66 @@
       <c r="C45" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="14">
+      <c r="F45" s="14">
         <v>4</v>
       </c>
-      <c r="F45" s="14">
+      <c r="G45" s="14">
         <v>3</v>
       </c>
-      <c r="G45" s="14">
+      <c r="H45" s="14">
         <v>12</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="I45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="J45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="K45" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A46" s="32"/>
       <c r="B46" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="E46" s="12">
-        <v>4</v>
       </c>
       <c r="F46" s="12">
         <v>4</v>
       </c>
       <c r="G46" s="12">
+        <v>4</v>
+      </c>
+      <c r="H46" s="12">
         <v>16</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="I46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="J46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="K46" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2232,217 +2327,247 @@
       <c r="C47" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="12">
+      <c r="F47" s="12">
         <v>3</v>
       </c>
-      <c r="F47" s="12">
+      <c r="G47" s="12">
         <v>4</v>
       </c>
-      <c r="G47" s="12">
+      <c r="H47" s="12">
         <v>12</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="I47" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="K47" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="72" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+    <row r="48" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="34"/>
       <c r="B48" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="14">
+      <c r="F48" s="14">
         <v>2</v>
       </c>
-      <c r="F48" s="14">
+      <c r="G48" s="14">
         <v>4</v>
       </c>
-      <c r="G48" s="14">
+      <c r="H48" s="14">
         <v>8</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="I48" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="J48" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="K48" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C61" s="11"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C62" s="11"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C65" s="11"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C66" s="11"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C67" s="11"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="47">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="between">
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G15">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="C11:H15">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThanOrEqual">
       <formula>20</formula>
     </cfRule>
     <cfRule type="cellIs" priority="8" operator="greaterThanOrEqual">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
       <formula>15</formula>
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
       <formula>10</formula>
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="between">
       <formula>4</formula>
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="between">
       <formula>0</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G48">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
-      <formula>4</formula>
+  <conditionalFormatting sqref="H29:H48">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+      <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
-      <formula>4</formula>
-      <formula>9</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>15</formula>
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>10</formula>
+      <formula>14</formula>
     </cfRule>
     <cfRule type="cellIs" priority="4" operator="between">
       <formula>10</formula>
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
-      <formula>10</formula>
-      <formula>14</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+      <formula>4</formula>
+      <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
-      <formula>15</formula>
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
-      <formula>20</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRD2018-G13组项目/软件工程系列课程教学辅助网站/受控文档/分析设计/PRD2018-G13-风险管理.xlsx
+++ b/PRD2018-G13组项目/软件工程系列课程教学辅助网站/受控文档/分析设计/PRD2018-G13-风险管理.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B2928-1AB2-4C13-9044-0ACAE91A7D04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
   <si>
     <t>《风险后果严重性等级表》</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -365,9 +364,6 @@
     <t>原本完成的需求需要全部推倒重做</t>
   </si>
   <si>
-    <t>中高风险</t>
-  </si>
-  <si>
     <t>陈安侍</t>
   </si>
   <si>
@@ -439,10 +435,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>低风险</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -490,9 +482,6 @@
     <t>首先上措施相同，确保项目组能够维持运作。再者由负责人出面约定时间地点沟通调解。</t>
   </si>
   <si>
-    <t>空出职务由了解任务较多的组员暂时兼任。</t>
-  </si>
-  <si>
     <t>触发条件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -562,13 +551,53 @@
   </si>
   <si>
     <t>用户随着项目的推移，发现原先提出的需求无法满足其要求，需要增添需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个组员确认AB角色，A角色不在场情况下由B角色担任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈安侍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨溢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈俊杉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严翔宇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -795,12 +824,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,27 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,26 +1064,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1078,23 +1099,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1270,38 +1274,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="1" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="17"/>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1397,20 +1401,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1427,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1450,7 +1454,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1504,7 +1508,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1531,7 +1535,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1558,7 +1562,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1583,18 +1587,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1634,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1651,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1668,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1681,7 +1685,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1698,22 +1702,22 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>45</v>
@@ -1783,200 +1787,200 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="26" t="s">
+    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="C29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="F29" s="20">
         <v>3</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="20">
         <v>3</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="19">
         <f>G29*F29</f>
         <v>9</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>126</v>
+        <v>109</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="8">
+        <v>99</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="20">
         <v>5</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="20">
         <v>2</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="19">
         <f t="shared" ref="H30:H34" si="0">G30*F30</f>
         <v>10</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="F31" s="20">
         <v>3</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="20">
         <v>4</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="8">
+        <v>127</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="20">
         <v>3</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="20">
         <v>2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="F33" s="20">
         <v>3</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="20">
         <v>2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="8">
+        <v>129</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="20">
         <v>3</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="20">
         <v>2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1986,7 +1990,7 @@
         <v>66</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>65</v>
@@ -1995,161 +1999,161 @@
         <v>4</v>
       </c>
       <c r="G35" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="9">
         <v>12</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="27">
+        <v>3</v>
+      </c>
+      <c r="G36" s="27">
+        <v>3</v>
+      </c>
+      <c r="H36" s="27">
+        <v>9</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="E38" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="27">
+        <v>3</v>
+      </c>
+      <c r="G38" s="27">
+        <v>4</v>
+      </c>
+      <c r="H38" s="27">
+        <v>12</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="20">
+      <c r="E40" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="27">
         <v>3</v>
       </c>
-      <c r="G36" s="20">
-        <v>3</v>
-      </c>
-      <c r="H36" s="20">
-        <v>9</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="20">
-        <v>3</v>
-      </c>
-      <c r="G38" s="20">
-        <v>4</v>
-      </c>
-      <c r="H38" s="20">
-        <v>12</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K38" s="20" t="s">
+      <c r="G40" s="27">
+        <v>2</v>
+      </c>
+      <c r="H40" s="27">
+        <v>6</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="20">
-        <v>3</v>
-      </c>
-      <c r="G40" s="20">
-        <v>2</v>
-      </c>
-      <c r="H40" s="20">
-        <v>6</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A42" s="35" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2159,7 +2163,7 @@
         <v>75</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>76</v>
@@ -2174,17 +2178,17 @@
         <v>6</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>77</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
       <c r="B43" s="9" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>78</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>79</v>
@@ -2213,11 +2217,11 @@
         <v>80</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
       <c r="B44" s="9" t="s">
         <v>60</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>82</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>83</v>
@@ -2237,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="H44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>29</v>
@@ -2246,24 +2250,24 @@
         <v>81</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="F45" s="14">
         <v>4</v>
@@ -2278,14 +2282,14 @@
         <v>29</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="108" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
       <c r="B46" s="9" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>85</v>
@@ -2314,11 +2318,11 @@
         <v>86</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2328,7 +2332,7 @@
         <v>88</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>89</v>
@@ -2349,22 +2353,22 @@
         <v>87</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="34"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
       <c r="B48" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F48" s="14">
         <v>2</v>
@@ -2379,110 +2383,138 @@
         <v>31</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="11"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="11"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="11"/>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="11"/>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="11"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="11"/>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="B38:B39"/>
@@ -2500,20 +2532,22 @@
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N14">
